--- a/runs/run969/NotionalETEOutput969.xlsx
+++ b/runs/run969/NotionalETEOutput969.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_350.MISSILE_ANGERMAX2_350</t>
+    <t>MISSILE_BRAVER2_129.MISSILE_BRAVER2_129</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1514.023306100117</v>
+        <v>-1428.588622218664</v>
       </c>
       <c r="J2">
-        <v>2004.619800110584</v>
+        <v>1987.313894991911</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1430.506082258623</v>
+        <v>-1505.448720844535</v>
       </c>
       <c r="J3">
-        <v>1879.216243619421</v>
+        <v>2034.474445809962</v>
       </c>
       <c r="K3">
-        <v>307.2218452282139</v>
+        <v>310.2904254406292</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1486.791505979528</v>
+        <v>-1429.567065623281</v>
       </c>
       <c r="J4">
-        <v>1972.400473331874</v>
+        <v>1830.012443113809</v>
       </c>
       <c r="K4">
-        <v>593.3590053073764</v>
+        <v>592.384131112495</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1364.847855678271</v>
+        <v>-1445.730702730672</v>
       </c>
       <c r="J5">
-        <v>1917.294786417186</v>
+        <v>1930.97241559441</v>
       </c>
       <c r="K5">
-        <v>846.6992862085241</v>
+        <v>906.7331098364017</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1323.494001356891</v>
+        <v>-1435.092479645032</v>
       </c>
       <c r="J6">
-        <v>1894.223019478065</v>
+        <v>1821.488703970474</v>
       </c>
       <c r="K6">
-        <v>1154.887096100726</v>
+        <v>1159.324400158603</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1400.054070026777</v>
+        <v>-1305.055652137779</v>
       </c>
       <c r="J7">
-        <v>1843.824480967063</v>
+        <v>1837.228915000626</v>
       </c>
       <c r="K7">
-        <v>1373.047106697982</v>
+        <v>1378.589618195103</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1369.033779482246</v>
+        <v>-1324.829021835909</v>
       </c>
       <c r="J8">
-        <v>1652.994172884699</v>
+        <v>1668.536345200042</v>
       </c>
       <c r="K8">
-        <v>1613.986429085078</v>
+        <v>1563.162798941587</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.93558862027207</v>
+        <v>-98.14951160758433</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1254.666210158366</v>
+        <v>-1219.148373315511</v>
       </c>
       <c r="J9">
-        <v>1708.363289941584</v>
+        <v>1673.264964109212</v>
       </c>
       <c r="K9">
-        <v>1753.468645385673</v>
+        <v>1742.036822557229</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.8202519428708</v>
+        <v>214.744900725256</v>
       </c>
       <c r="G10">
-        <v>-87.1941138941025</v>
+        <v>-85.26277826847192</v>
       </c>
       <c r="H10">
-        <v>899.1969570776819</v>
+        <v>878.1629514007848</v>
       </c>
       <c r="I10">
-        <v>-1231.630567680151</v>
+        <v>-1255.368089400745</v>
       </c>
       <c r="J10">
-        <v>1668.875962435395</v>
+        <v>1567.816996096044</v>
       </c>
       <c r="K10">
-        <v>2057.123296177608</v>
+        <v>2012.988115467416</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.1578978734576</v>
+        <v>175.6765623310101</v>
       </c>
       <c r="G11">
-        <v>-64.69080192087445</v>
+        <v>-66.13481269180186</v>
       </c>
       <c r="H11">
-        <v>1065.433931403487</v>
+        <v>1015.584118320395</v>
       </c>
       <c r="I11">
-        <v>-1196.657285414266</v>
+        <v>-1217.597501243953</v>
       </c>
       <c r="J11">
-        <v>1497.478967032724</v>
+        <v>1515.808586878504</v>
       </c>
       <c r="K11">
-        <v>2084.254427719567</v>
+        <v>2084.016712328329</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>145.1296651834574</v>
+        <v>136.2778459861245</v>
       </c>
       <c r="G12">
-        <v>-49.82321613349848</v>
+        <v>-50.32298773805201</v>
       </c>
       <c r="H12">
-        <v>1205.914148009174</v>
+        <v>1187.016915046937</v>
       </c>
       <c r="I12">
-        <v>-1200.88110738107</v>
+        <v>-1140.287406709863</v>
       </c>
       <c r="J12">
-        <v>1443.191922158927</v>
+        <v>1473.180701058038</v>
       </c>
       <c r="K12">
-        <v>2441.244830096599</v>
+        <v>2387.251977303054</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.0158964837736</v>
+        <v>123.6192717705844</v>
       </c>
       <c r="G13">
-        <v>-33.43772501047874</v>
+        <v>-35.20086592224143</v>
       </c>
       <c r="H13">
-        <v>1236.345952853502</v>
+        <v>1315.04147190866</v>
       </c>
       <c r="I13">
-        <v>-1105.920619656729</v>
+        <v>-1167.662083497519</v>
       </c>
       <c r="J13">
-        <v>1441.822649641137</v>
+        <v>1450.830800203127</v>
       </c>
       <c r="K13">
-        <v>2441.838823035797</v>
+        <v>2562.136509109216</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.2778950428205</v>
+        <v>104.0815129397462</v>
       </c>
       <c r="G14">
-        <v>-18.2653340997636</v>
+        <v>-16.87060180749942</v>
       </c>
       <c r="H14">
-        <v>1272.810879605535</v>
+        <v>1354.030942274291</v>
       </c>
       <c r="I14">
-        <v>-1131.625985350421</v>
+        <v>-1117.458520690951</v>
       </c>
       <c r="J14">
-        <v>1398.975373972283</v>
+        <v>1417.787557820414</v>
       </c>
       <c r="K14">
-        <v>2626.823266076095</v>
+        <v>2645.684234838135</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.12125026812758</v>
+        <v>104.9603572248667</v>
       </c>
       <c r="G15">
-        <v>-0.9539720171427835</v>
+        <v>-0.9078343818285628</v>
       </c>
       <c r="H15">
-        <v>1313.227697582042</v>
+        <v>1362.382666199539</v>
       </c>
       <c r="I15">
-        <v>-1094.795255155251</v>
+        <v>-1057.530766733593</v>
       </c>
       <c r="J15">
-        <v>1345.196783147598</v>
+        <v>1435.284448767129</v>
       </c>
       <c r="K15">
-        <v>2871.090548423023</v>
+        <v>2792.285973140359</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.10044518417138</v>
+        <v>90.4135271606102</v>
       </c>
       <c r="G16">
-        <v>15.12508999839939</v>
+        <v>16.1215341644336</v>
       </c>
       <c r="H16">
-        <v>1451.737967424155</v>
+        <v>1370.205343289563</v>
       </c>
       <c r="I16">
-        <v>-1009.001482637784</v>
+        <v>-1010.116494024619</v>
       </c>
       <c r="J16">
-        <v>1327.945329725361</v>
+        <v>1355.74040935052</v>
       </c>
       <c r="K16">
-        <v>2870.277881103223</v>
+        <v>2782.705464626941</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.74755433288664</v>
+        <v>84.14544344427344</v>
       </c>
       <c r="G17">
-        <v>31.15943627291447</v>
+        <v>32.89305136539674</v>
       </c>
       <c r="H17">
-        <v>1494.03978017954</v>
+        <v>1407.265066130418</v>
       </c>
       <c r="I17">
-        <v>-984.1845830599977</v>
+        <v>-985.1684890221831</v>
       </c>
       <c r="J17">
-        <v>1294.35565931</v>
+        <v>1263.348462641252</v>
       </c>
       <c r="K17">
-        <v>2836.344834197242</v>
+        <v>2866.16510084033</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.79184419132898</v>
+        <v>85.40842252616788</v>
       </c>
       <c r="G18">
-        <v>46.71877319300614</v>
+        <v>46.20145572444664</v>
       </c>
       <c r="H18">
-        <v>1574.431654231503</v>
+        <v>1465.445266542035</v>
       </c>
       <c r="I18">
-        <v>-957.3416612177106</v>
+        <v>-900.8203659932771</v>
       </c>
       <c r="J18">
-        <v>1255.785170090776</v>
+        <v>1196.756857776216</v>
       </c>
       <c r="K18">
-        <v>3048.61284749132</v>
+        <v>3122.500211686692</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.92124237255344</v>
+        <v>81.21094444170613</v>
       </c>
       <c r="G19">
-        <v>62.64970495778979</v>
+        <v>67.53249793461814</v>
       </c>
       <c r="H19">
-        <v>1485.723287448089</v>
+        <v>1523.00683545962</v>
       </c>
       <c r="I19">
-        <v>-916.832292284293</v>
+        <v>-873.1697846106522</v>
       </c>
       <c r="J19">
-        <v>1125.534157686338</v>
+        <v>1183.127513104919</v>
       </c>
       <c r="K19">
-        <v>3125.078546007413</v>
+        <v>3020.844314683912</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.94428722235114</v>
+        <v>71.41042214525235</v>
       </c>
       <c r="G20">
-        <v>79.81395233120018</v>
+        <v>80.46614243881858</v>
       </c>
       <c r="H20">
-        <v>1509.106780149022</v>
+        <v>1563.534283133025</v>
       </c>
       <c r="I20">
-        <v>-810.3688767414931</v>
+        <v>-863.9944367655947</v>
       </c>
       <c r="J20">
-        <v>1169.735067681019</v>
+        <v>1124.74298382418</v>
       </c>
       <c r="K20">
-        <v>3012.899534642616</v>
+        <v>3172.871780737476</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.84320373105473</v>
+        <v>68.61028225661001</v>
       </c>
       <c r="G21">
-        <v>97.73006718410612</v>
+        <v>102.5835305653279</v>
       </c>
       <c r="H21">
-        <v>1606.135898675063</v>
+        <v>1619.477574242595</v>
       </c>
       <c r="I21">
-        <v>-783.2917761336524</v>
+        <v>-782.376034042266</v>
       </c>
       <c r="J21">
-        <v>1097.359059117801</v>
+        <v>1112.345135270279</v>
       </c>
       <c r="K21">
-        <v>3189.541729669797</v>
+        <v>3115.674657932248</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.55297854667539</v>
+        <v>70.93750588822977</v>
       </c>
       <c r="G22">
-        <v>119.0589861876215</v>
+        <v>119.8691532798984</v>
       </c>
       <c r="H22">
-        <v>1690.11273177969</v>
+        <v>1585.102302876856</v>
       </c>
       <c r="I22">
-        <v>-777.9110972831681</v>
+        <v>-715.2175684940034</v>
       </c>
       <c r="J22">
-        <v>1016.403984931755</v>
+        <v>1012.476659795568</v>
       </c>
       <c r="K22">
-        <v>3346.307767206437</v>
+        <v>3291.894409332828</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.92304799086757</v>
+        <v>62.6366294361507</v>
       </c>
       <c r="G23">
-        <v>129.9050853074746</v>
+        <v>132.7617420106606</v>
       </c>
       <c r="H23">
-        <v>1628.663659700507</v>
+        <v>1616.059682729031</v>
       </c>
       <c r="I23">
-        <v>-692.923534289181</v>
+        <v>-705.3451626204628</v>
       </c>
       <c r="J23">
-        <v>963.1671579122791</v>
+        <v>1014.115172037583</v>
       </c>
       <c r="K23">
-        <v>3266.337823075921</v>
+        <v>3246.393416316977</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.80598974371375</v>
+        <v>66.2736600729954</v>
       </c>
       <c r="G24">
-        <v>144.362517961074</v>
+        <v>140.5587635159247</v>
       </c>
       <c r="H24">
-        <v>1692.389447865435</v>
+        <v>1708.314225413623</v>
       </c>
       <c r="I24">
-        <v>-617.3044922414648</v>
+        <v>-649.8662365591953</v>
       </c>
       <c r="J24">
-        <v>948.4387786192588</v>
+        <v>896.8584955009063</v>
       </c>
       <c r="K24">
-        <v>3342.076914740948</v>
+        <v>3124.387800430698</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.64024724012308</v>
+        <v>64.31602139022267</v>
       </c>
       <c r="G25">
-        <v>165.439584627609</v>
+        <v>164.7577078883802</v>
       </c>
       <c r="H25">
-        <v>1621.048316289306</v>
+        <v>1751.848669612766</v>
       </c>
       <c r="I25">
-        <v>-608.6740691494896</v>
+        <v>-586.8760751961062</v>
       </c>
       <c r="J25">
-        <v>900.1149735780799</v>
+        <v>885.9493562120401</v>
       </c>
       <c r="K25">
-        <v>3272.913296859786</v>
+        <v>3039.718409714692</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.35968611976421</v>
+        <v>59.49687075430212</v>
       </c>
       <c r="G26">
-        <v>186.2121978747891</v>
+        <v>182.9040709480582</v>
       </c>
       <c r="H26">
-        <v>1608.758951003343</v>
+        <v>1664.884763210001</v>
       </c>
       <c r="I26">
-        <v>-565.3876852060436</v>
+        <v>-550.6660662210871</v>
       </c>
       <c r="J26">
-        <v>829.7423686058883</v>
+        <v>847.1662597283862</v>
       </c>
       <c r="K26">
-        <v>3136.099580046698</v>
+        <v>3023.472972721645</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.20891537055149</v>
+        <v>58.83524146454864</v>
       </c>
       <c r="G27">
-        <v>193.6044042584306</v>
+        <v>198.3621615123265</v>
       </c>
       <c r="H27">
-        <v>1760.074390369995</v>
+        <v>1639.358462863238</v>
       </c>
       <c r="I27">
-        <v>-499.4405050340163</v>
+        <v>-503.386788227126</v>
       </c>
       <c r="J27">
-        <v>803.791500062778</v>
+        <v>745.7067859690055</v>
       </c>
       <c r="K27">
-        <v>3081.595320533807</v>
+        <v>2921.239766803305</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.00337118345669</v>
+        <v>57.58592725637617</v>
       </c>
       <c r="G28">
-        <v>208.2802762157522</v>
+        <v>215.4364168449535</v>
       </c>
       <c r="H28">
-        <v>1666.957742444047</v>
+        <v>1649.109208915572</v>
       </c>
       <c r="I28">
-        <v>-455.9478265460874</v>
+        <v>-440.8799729252159</v>
       </c>
       <c r="J28">
-        <v>771.5305160280672</v>
+        <v>728.3600857218539</v>
       </c>
       <c r="K28">
-        <v>3082.663862868565</v>
+        <v>2972.135372074072</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.24047330624007</v>
+        <v>56.98731573401648</v>
       </c>
       <c r="G29">
-        <v>231.480903628269</v>
+        <v>240.6787093249274</v>
       </c>
       <c r="H29">
-        <v>1714.916344840555</v>
+        <v>1743.301990590454</v>
       </c>
       <c r="I29">
-        <v>-380.3182368995077</v>
+        <v>-390.0349805901213</v>
       </c>
       <c r="J29">
-        <v>666.6293684202501</v>
+        <v>663.62582954226</v>
       </c>
       <c r="K29">
-        <v>3011.324101203445</v>
+        <v>2860.209992432076</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.05704002408753</v>
+        <v>54.49456475702402</v>
       </c>
       <c r="G30">
-        <v>236.6424160279865</v>
+        <v>234.9569291816368</v>
       </c>
       <c r="H30">
-        <v>1711.603617230405</v>
+        <v>1691.59519327267</v>
       </c>
       <c r="I30">
-        <v>-323.085998274157</v>
+        <v>-310.757838913249</v>
       </c>
       <c r="J30">
-        <v>639.2253528342133</v>
+        <v>640.6407072182255</v>
       </c>
       <c r="K30">
-        <v>2863.677270906901</v>
+        <v>2667.559013183577</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.44221754161714</v>
+        <v>50.44598062253093</v>
       </c>
       <c r="G31">
-        <v>274.0700909356445</v>
+        <v>267.7167576046087</v>
       </c>
       <c r="H31">
-        <v>1722.396622493325</v>
+        <v>1792.456257444841</v>
       </c>
       <c r="I31">
-        <v>-275.0550793882424</v>
+        <v>-258.2570884377706</v>
       </c>
       <c r="J31">
-        <v>592.8716404319987</v>
+        <v>616.8957847746068</v>
       </c>
       <c r="K31">
-        <v>2601.637006298291</v>
+        <v>2603.582301728554</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.77926784341805</v>
+        <v>51.46290587502902</v>
       </c>
       <c r="G32">
-        <v>286.8748398707156</v>
+        <v>268.600762914912</v>
       </c>
       <c r="H32">
-        <v>1852.452373291603</v>
+        <v>1778.564057765808</v>
       </c>
       <c r="I32">
-        <v>-199.6945173704438</v>
+        <v>-217.7910169063561</v>
       </c>
       <c r="J32">
-        <v>555.4361958206566</v>
+        <v>550.606399373216</v>
       </c>
       <c r="K32">
-        <v>2461.672478572273</v>
+        <v>2610.610322228622</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.68298709490297</v>
+        <v>51.8111491555513</v>
       </c>
       <c r="G33">
-        <v>301.5911938460944</v>
+        <v>305.3068222522735</v>
       </c>
       <c r="H33">
-        <v>1767.723279829497</v>
+        <v>1715.374594988292</v>
       </c>
       <c r="I33">
-        <v>-138.9101838386954</v>
+        <v>-151.6350995192572</v>
       </c>
       <c r="J33">
-        <v>475.7956896951242</v>
+        <v>484.9658361008656</v>
       </c>
       <c r="K33">
-        <v>2299.650616606208</v>
+        <v>2452.990804193101</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.17469140743834</v>
+        <v>48.0908802780081</v>
       </c>
       <c r="G34">
-        <v>301.0935791340113</v>
+        <v>301.1604255140047</v>
       </c>
       <c r="H34">
-        <v>1759.811313168816</v>
+        <v>1869.801385526798</v>
       </c>
       <c r="I34">
-        <v>-83.78776274643542</v>
+        <v>-85.15508466262497</v>
       </c>
       <c r="J34">
-        <v>436.630654226325</v>
+        <v>460.0176432525502</v>
       </c>
       <c r="K34">
-        <v>2289.455385142191</v>
+        <v>2299.929948978912</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.0072367286386</v>
+        <v>47.48183273426274</v>
       </c>
       <c r="G35">
-        <v>317.6225313976681</v>
+        <v>331.1791197818308</v>
       </c>
       <c r="H35">
-        <v>1810.072867718738</v>
+        <v>1876.973317654765</v>
       </c>
       <c r="I35">
-        <v>-18.99562551264521</v>
+        <v>-18.95833466367454</v>
       </c>
       <c r="J35">
-        <v>397.2888573295192</v>
+        <v>401.590413302542</v>
       </c>
       <c r="K35">
-        <v>2088.272299776338</v>
+        <v>2073.542731193986</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.44791273216656</v>
+        <v>48.62480118282765</v>
       </c>
       <c r="G36">
-        <v>332.5141208147716</v>
+        <v>340.8588837896469</v>
       </c>
       <c r="H36">
-        <v>1821.61436718237</v>
+        <v>1829.487224928273</v>
       </c>
       <c r="I36">
-        <v>48.90759125581675</v>
+        <v>49.15571181077337</v>
       </c>
       <c r="J36">
-        <v>330.9627406873255</v>
+        <v>360.1313223824267</v>
       </c>
       <c r="K36">
-        <v>1794.797073845261</v>
+        <v>1849.480856143551</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.05412563269141</v>
+        <v>44.81404203518032</v>
       </c>
       <c r="G37">
-        <v>376.1956176355524</v>
+        <v>350.2623683960007</v>
       </c>
       <c r="H37">
-        <v>1860.444318029465</v>
+        <v>1810.31579378987</v>
       </c>
       <c r="I37">
-        <v>110.6056871820745</v>
+        <v>117.2679069990792</v>
       </c>
       <c r="J37">
-        <v>289.6110718434422</v>
+        <v>293.2610910933689</v>
       </c>
       <c r="K37">
-        <v>1621.150569484924</v>
+        <v>1674.788742186271</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.93478824729464</v>
+        <v>45.41158399210877</v>
       </c>
       <c r="G38">
-        <v>394.7495418509819</v>
+        <v>386.2015011636125</v>
       </c>
       <c r="H38">
-        <v>1845.677580153209</v>
+        <v>1876.08554305637</v>
       </c>
       <c r="I38">
-        <v>188.0076965991602</v>
+        <v>179.8609503068363</v>
       </c>
       <c r="J38">
-        <v>259.1785807601836</v>
+        <v>256.1691170621741</v>
       </c>
       <c r="K38">
-        <v>1346.31866692076</v>
+        <v>1356.29449986383</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.65730190595585</v>
+        <v>43.20994968156128</v>
       </c>
       <c r="G39">
-        <v>403.58603184239</v>
+        <v>383.7342089827048</v>
       </c>
       <c r="H39">
-        <v>1941.570267469945</v>
+        <v>1793.89441305601</v>
       </c>
       <c r="I39">
-        <v>263.3248162864858</v>
+        <v>254.906016394513</v>
       </c>
       <c r="J39">
-        <v>190.4933654063725</v>
+        <v>204.315651875566</v>
       </c>
       <c r="K39">
-        <v>1186.345234459019</v>
+        <v>1194.176226832455</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.29821480800718</v>
+        <v>43.28517806471996</v>
       </c>
       <c r="G40">
-        <v>405.0441947161319</v>
+        <v>420.4704736856846</v>
       </c>
       <c r="H40">
-        <v>1802.5948082918</v>
+        <v>1812.736083470372</v>
       </c>
       <c r="I40">
-        <v>313.8676157302406</v>
+        <v>343.7875278617289</v>
       </c>
       <c r="J40">
-        <v>156.4035190651708</v>
+        <v>157.4454441533343</v>
       </c>
       <c r="K40">
-        <v>916.7757121369714</v>
+        <v>930.889478565949</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.05731544879725</v>
+        <v>44.26821501427979</v>
       </c>
       <c r="G41">
-        <v>418.2830874773653</v>
+        <v>441.1180494214406</v>
       </c>
       <c r="H41">
-        <v>1961.458993386246</v>
+        <v>1917.48402555854</v>
       </c>
       <c r="I41">
-        <v>410.9944273443158</v>
+        <v>403.9198561939504</v>
       </c>
       <c r="J41">
-        <v>102.4886877694626</v>
+        <v>102.1987208725547</v>
       </c>
       <c r="K41">
-        <v>599.7339308523498</v>
+        <v>626.6302513597665</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.20491309720358</v>
+        <v>43.7886933445567</v>
       </c>
       <c r="G42">
-        <v>439.2911737446609</v>
+        <v>447.5310380169275</v>
       </c>
       <c r="H42">
-        <v>1907.700045629678</v>
+        <v>1918.502422848803</v>
       </c>
       <c r="I42">
-        <v>484.1531915147998</v>
+        <v>463.2168663230212</v>
       </c>
       <c r="J42">
-        <v>52.60156249867858</v>
+        <v>56.37603471809403</v>
       </c>
       <c r="K42">
-        <v>320.9087822799822</v>
+        <v>351.6759741889334</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.69946888208943</v>
+        <v>42.97257014874085</v>
       </c>
       <c r="G43">
-        <v>481.1121615409872</v>
+        <v>471.4556155411378</v>
       </c>
       <c r="H43">
-        <v>1990.661654700099</v>
+        <v>1874.258818902516</v>
       </c>
       <c r="I43">
-        <v>553.8500434998624</v>
+        <v>546.0441992412432</v>
       </c>
       <c r="J43">
-        <v>5.094696726005511</v>
+        <v>5.033134794869477</v>
       </c>
       <c r="K43">
-        <v>34.94914591157759</v>
+        <v>34.97207481865617</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.52082299739111</v>
+        <v>42.80585783894541</v>
       </c>
       <c r="G44">
-        <v>463.8561697966294</v>
+        <v>501.6459053633614</v>
       </c>
       <c r="H44">
-        <v>1960.942546066463</v>
+        <v>1813.656783047851</v>
       </c>
       <c r="I44">
-        <v>616.0666730940585</v>
+        <v>652.2726915100599</v>
       </c>
       <c r="J44">
-        <v>-45.02642820754964</v>
+        <v>-44.54103541108545</v>
       </c>
       <c r="K44">
-        <v>-275.8002171793427</v>
+        <v>-292.4261772437451</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.12965079589683</v>
+        <v>40.00407833598715</v>
       </c>
       <c r="G45">
-        <v>503.4297951348545</v>
+        <v>492.6120413836434</v>
       </c>
       <c r="H45">
-        <v>1915.608581225816</v>
+        <v>1864.033388976571</v>
       </c>
       <c r="I45">
-        <v>693.0644667598245</v>
+        <v>721.1448119628592</v>
       </c>
       <c r="J45">
-        <v>-88.21864088566748</v>
+        <v>-92.08859756509393</v>
       </c>
       <c r="K45">
-        <v>-619.8119350589893</v>
+        <v>-639.7381470164705</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.00056007119013</v>
+        <v>42.41813583227686</v>
       </c>
       <c r="G46">
-        <v>504.5503089655696</v>
+        <v>526.228792001987</v>
       </c>
       <c r="H46">
-        <v>1961.004691155807</v>
+        <v>2012.936901323068</v>
       </c>
       <c r="I46">
-        <v>828.2848183629998</v>
+        <v>782.8681501147757</v>
       </c>
       <c r="J46">
-        <v>-142.408295829876</v>
+        <v>-147.2572836714159</v>
       </c>
       <c r="K46">
-        <v>-956.8137633061041</v>
+        <v>-999.731143622231</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.3019568797618</v>
+        <v>40.07762571055841</v>
       </c>
       <c r="G47">
-        <v>536.9881389437135</v>
+        <v>539.7130425583697</v>
       </c>
       <c r="H47">
-        <v>1840.9801021956</v>
+        <v>1848.234944560811</v>
       </c>
       <c r="I47">
-        <v>902.888918506774</v>
+        <v>902.7276755000529</v>
       </c>
       <c r="J47">
-        <v>-196.9373938811043</v>
+        <v>-190.038355720168</v>
       </c>
       <c r="K47">
-        <v>-1300.720820673028</v>
+        <v>-1311.861805198569</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.88323980192946</v>
+        <v>38.05473374872204</v>
       </c>
       <c r="G48">
-        <v>542.6085775346547</v>
+        <v>517.2488984267704</v>
       </c>
       <c r="H48">
-        <v>1977.430174515744</v>
+        <v>1906.580782423639</v>
       </c>
       <c r="I48">
-        <v>980.1594074485231</v>
+        <v>965.5973567189675</v>
       </c>
       <c r="J48">
-        <v>-247.8630458493371</v>
+        <v>-249.1523294821019</v>
       </c>
       <c r="K48">
-        <v>-1680.548412772637</v>
+        <v>-1688.807554500161</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.44045723998036</v>
+        <v>37.33783414165438</v>
       </c>
       <c r="G49">
-        <v>581.9890532020011</v>
+        <v>555.9104687393273</v>
       </c>
       <c r="H49">
-        <v>1934.181851733874</v>
+        <v>1851.430903855348</v>
       </c>
       <c r="I49">
-        <v>1120.127198161914</v>
+        <v>1081.050756169914</v>
       </c>
       <c r="J49">
-        <v>-292.0457369774533</v>
+        <v>-287.7009636976236</v>
       </c>
       <c r="K49">
-        <v>-2157.67841822084</v>
+        <v>-2120.110442547149</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.10773575565895</v>
+        <v>38.8770626703238</v>
       </c>
       <c r="G50">
-        <v>561.3540893027186</v>
+        <v>585.6046371511476</v>
       </c>
       <c r="H50">
-        <v>1895.458564349485</v>
+        <v>1887.071991341388</v>
       </c>
       <c r="I50">
-        <v>1121.74340249263</v>
+        <v>1124.835058145739</v>
       </c>
       <c r="J50">
-        <v>-343.9560999185378</v>
+        <v>-336.3135672179541</v>
       </c>
       <c r="K50">
-        <v>-2524.998817599763</v>
+        <v>-2460.90397487061</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.11335531718033</v>
+        <v>37.25760114460629</v>
       </c>
       <c r="G51">
-        <v>616.3815754214562</v>
+        <v>572.0492124607474</v>
       </c>
       <c r="H51">
-        <v>1902.006476325393</v>
+        <v>2006.100644157829</v>
       </c>
       <c r="I51">
-        <v>1316.903766980329</v>
+        <v>1279.445628703731</v>
       </c>
       <c r="J51">
-        <v>-398.4373436108702</v>
+        <v>-386.0791435341399</v>
       </c>
       <c r="K51">
-        <v>-3029.668036560156</v>
+        <v>-2900.300615400171</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.34323933231476</v>
+        <v>36.08937324426191</v>
       </c>
       <c r="G52">
-        <v>584.1191784130579</v>
+        <v>605.28410489281</v>
       </c>
       <c r="H52">
-        <v>1896.619147553692</v>
+        <v>1988.055591829524</v>
       </c>
       <c r="I52">
-        <v>1302.055060325114</v>
+        <v>1302.681988905877</v>
       </c>
       <c r="J52">
-        <v>-434.1381530271129</v>
+        <v>-424.2804390579343</v>
       </c>
       <c r="K52">
-        <v>-3404.258312151026</v>
+        <v>-3230.012564084333</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.3995078011521</v>
+        <v>38.11726969450083</v>
       </c>
       <c r="G53">
-        <v>634.181498357034</v>
+        <v>641.630578864274</v>
       </c>
       <c r="H53">
-        <v>1918.232210664344</v>
+        <v>2066.414698309586</v>
       </c>
       <c r="I53">
-        <v>1514.034509010771</v>
+        <v>1509.356587739287</v>
       </c>
       <c r="J53">
-        <v>-480.7970809390651</v>
+        <v>-462.3919129153567</v>
       </c>
       <c r="K53">
-        <v>-3938.449501845309</v>
+        <v>-3845.940411114297</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.30083800533823</v>
+        <v>37.38178470372447</v>
       </c>
       <c r="G54">
-        <v>632.4383699588308</v>
+        <v>651.9321238227514</v>
       </c>
       <c r="H54">
-        <v>1938.717421027591</v>
+        <v>2038.558080199936</v>
       </c>
       <c r="I54">
-        <v>1584.484431148853</v>
+        <v>1513.434198459114</v>
       </c>
       <c r="J54">
-        <v>-514.809230057056</v>
+        <v>-510.6646336857974</v>
       </c>
       <c r="K54">
-        <v>-4348.62815219524</v>
+        <v>-4361.706749191261</v>
       </c>
     </row>
   </sheetData>
